--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2023-TOM_주단위상세일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2023-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="225" windowWidth="19410" windowHeight="8895"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -391,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -485,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +521,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -725,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +776,144 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,95 +935,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -927,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -962,7 +1039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1174,13 +1251,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
@@ -1193,46 +1270,46 @@
     <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
+    <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1255,853 +1332,854 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="41">
         <v>45134</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41">
         <v>45135</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="43">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="49">
         <v>45138</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="49">
         <v>45142</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="49">
         <v>45145</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="49">
         <v>45149</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="34">
         <v>45152</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="34">
         <v>45156</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="36">
         <f>DAYS360(C8,E8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="62"/>
+      <c r="I8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="L8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="11">
         <v>45159</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
         <v>45163</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="11">
         <v>45166</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
         <v>45170</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="13">
         <f>DAYS360(C10,E10)+2</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="32">
         <v>45166</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B11" s="22" t="s">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="11">
         <v>45173</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="D11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11">
         <v>45177</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B12" s="22" t="s">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="11">
         <v>45180</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11">
         <v>45184</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B13" s="22" t="s">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="11">
         <v>45187</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11">
         <v>45191</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="32">
         <v>45190</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="11">
         <v>45194</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="11">
         <v>45196</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="11">
         <v>45201</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="11">
         <v>45205</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="27">
         <f>DAYS360(C15,E15)</f>
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="11">
         <v>45209</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="11">
         <v>45212</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="28"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="11">
         <v>45215</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="11">
         <v>45219</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="32">
         <v>45215</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="11">
         <v>45222</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="11">
         <v>45226</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="11">
         <v>45229</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="11">
         <v>45233</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="13">
         <f>DAYS360(C19,E19)+2</f>
         <v>5</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="32">
         <v>45229</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="11">
         <v>45236</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="11">
         <v>45240</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="H20" s="14"/>
+      <c r="I20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="11">
         <v>45243</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
         <v>45247</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="32">
         <v>45243</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="11">
         <v>45250</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
         <v>45254</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="11">
         <v>45257</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="11">
         <v>45261</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="11">
         <v>45264</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="11">
         <v>45268</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="32">
         <v>45264</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="30"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="11">
         <v>45271</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
         <v>45275</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="26" t="s">
+      <c r="H25" s="19"/>
+      <c r="I25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="30"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <v>45278</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11">
         <v>45282</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="19"/>
+      <c r="I26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <v>45286</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="11">
         <v>45289</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="32">
         <v>45286</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="11">
         <v>45293</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11">
         <v>45296</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="11">
         <v>45299</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11">
         <v>45303</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="26" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="32"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="22">
         <v>45306</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="34">
+      <c r="D30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="22">
         <v>45309</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="30" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2114,32 +2192,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.65">
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="2:11" s="5" customFormat="1" ht="20.25">
+      <c r="B33" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2161,7 +2239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,7 +2252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
